--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,11 +56,25 @@
 sumamente alto</t>
   </si>
   <si>
-    <t>Emma Myers</t>
+    <t xml:space="preserve">Emma </t>
   </si>
   <si>
     <t>Encarga de relaciones externas
 Sumamente talentosa</t>
+  </si>
+  <si>
+    <t>Trabajador de ejemplo</t>
+  </si>
+  <si>
+    <t>descripcion
+de
+ejemplo</t>
+  </si>
+  <si>
+    <t>hola como estas</t>
+  </si>
+  <si>
+    <t>mu bien</t>
   </si>
 </sst>
 </file>
@@ -105,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,6 +223,32 @@
         <v>600.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>-123.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>456.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,15 +40,6 @@
 De gran corazon</t>
   </si>
   <si>
-    <t>Horas extras</t>
-  </si>
-  <si>
-    <t>Adelanto</t>
-  </si>
-  <si>
-    <t>Extras varios</t>
-  </si>
-  <si>
     <t>Mynor Barrios</t>
   </si>
   <si>
@@ -71,10 +62,21 @@
 ejemplo</t>
   </si>
   <si>
-    <t>hola como estas</t>
-  </si>
-  <si>
-    <t>mu bien</t>
+    <t>Trabajador 1</t>
+  </si>
+  <si>
+    <t>descripcion
+numero
+1
+modificado</t>
+  </si>
+  <si>
+    <t>Trabajador 2</t>
+  </si>
+  <si>
+    <t>descripcion
+numero
+2</t>
   </si>
 </sst>
 </file>
@@ -119,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,100 +155,80 @@
         <v>7</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>700.0</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>120.0</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>-300.0</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>600.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3200.0</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>-350.0</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>700.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>5000.0</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>600.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>600.0</v>
       </c>
-      <c r="E5" t="s" s="0">
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F5" t="n" s="0">
-        <v>-123.0</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>456.0</v>
+      <c r="C7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1300.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,8 +36,9 @@
   </si>
   <si>
     <t>Con cabello oscuro
-De rendimiento medio
-De gran corazon</t>
+por 
+diver razones
+modificado</t>
   </si>
   <si>
     <t>Mynor Barrios</t>
@@ -76,7 +77,29 @@
   <si>
     <t>descripcion
 numero
-2</t>
+2
+modificada
+modificado 2</t>
+  </si>
+  <si>
+    <t>trabajador numero 3</t>
+  </si>
+  <si>
+    <t>descripcion
+numero
+3
+modificado
+modificado 2</t>
+  </si>
+  <si>
+    <t>trabajador 4</t>
+  </si>
+  <si>
+    <t>descripcion
+numero
+4
+modificada
+modificado 2</t>
   </si>
 </sst>
 </file>
@@ -121,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,10 +178,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>700.0</v>
+        <v>7000.0</v>
       </c>
     </row>
     <row r="3">
@@ -169,10 +192,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3200.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="4">
@@ -183,7 +206,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>5000.0</v>
@@ -197,10 +220,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="6">
@@ -211,7 +234,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>1500.0</v>
@@ -225,10 +248,38 @@
         <v>17</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>1300.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>3100.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -206,7 +206,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>5000.0</v>
@@ -220,7 +220,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>900.0</v>
@@ -276,7 +276,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>3100.0</v>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -100,6 +100,30 @@
 4
 modificada
 modificado 2</t>
+  </si>
+  <si>
+    <t>Ingrese nombre del trabajador</t>
+  </si>
+  <si>
+    <t>Ingrese una pequeña descripción</t>
+  </si>
+  <si>
+    <t>trabajador x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabajado x </t>
+  </si>
+  <si>
+    <t>Gregorio Ica Coc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario Semanal de lunes a sabado. </t>
+  </si>
+  <si>
+    <t>Prestamo</t>
+  </si>
+  <si>
+    <t>Bono fin de mes Octubre</t>
   </si>
 </sst>
 </file>
@@ -144,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -282,6 +306,74 @@
         <v>3100.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>304.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>250.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -100,6 +100,15 @@
 4
 modificada
 modificado 2</t>
+  </si>
+  <si>
+    <t>ijoj</t>
+  </si>
+  <si>
+    <t>ijio</t>
+  </si>
+  <si>
+    <t>imo</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -282,6 +291,26 @@
         <v>3100.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>4848.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>598.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/trabajadores.xlsx
+++ b/ProyectoPooDist/excels/trabajadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Piloto de camión especializado en rutas de zona montañosa</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
   </si>
   <si>
     <t>Carlos Fernández</t>
@@ -258,13 +261,19 @@
       <c r="D2" t="n" s="0">
         <v>4350.0</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>-4000.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>5.0</v>
@@ -275,10 +284,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>5.0</v>
@@ -289,10 +298,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>5.0</v>
@@ -303,10 +312,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>5.0</v>
@@ -317,10 +326,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>5.0</v>
@@ -331,10 +340,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>2.0</v>
@@ -345,10 +354,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>5.0</v>
@@ -359,10 +368,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>3.0</v>
@@ -373,10 +382,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>5.0</v>
@@ -387,10 +396,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>5.0</v>
@@ -401,10 +410,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>-1.0</v>
@@ -415,10 +424,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>5.0</v>
@@ -429,10 +438,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>5.0</v>
@@ -443,10 +452,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>5.0</v>
@@ -457,10 +466,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>5.0</v>
@@ -471,10 +480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>5.0</v>
@@ -485,10 +494,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>5.0</v>
@@ -499,10 +508,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>5.0</v>
@@ -513,10 +522,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>5.0</v>
@@ -527,10 +536,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>5.0</v>
@@ -541,10 +550,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>3.0</v>
@@ -555,10 +564,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>-1.0</v>
@@ -569,10 +578,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>5.0</v>
